--- a/simulation_model/stations.xlsx
+++ b/simulation_model/stations.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -145,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -168,11 +168,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -180,6 +208,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +558,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,49 +736,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="B9" s="8">
+        <v>12</v>
+      </c>
+      <c r="C9" s="8">
+        <v>12</v>
+      </c>
+      <c r="D9" s="8">
+        <v>12</v>
+      </c>
+      <c r="E9" s="11">
         <v>9</v>
       </c>
-      <c r="F9" s="1">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="F9" s="8">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
         <v>1</v>
       </c>
     </row>

--- a/simulation_model/stations.xlsx
+++ b/simulation_model/stations.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farshid\Desktop\thesis\early-fault-detection\simulation_model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dav\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ScreenPrinter</t>
   </si>
@@ -93,13 +93,58 @@
   </si>
   <si>
     <t>SUM</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pHjP5_vDsBQ</t>
+  </si>
+  <si>
+    <t>Covers the PCB with solder paste at the right points using a stencil</t>
+  </si>
+  <si>
+    <t>Optically checks if the PCB is correctly covered by paste.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S8qkaTsr2_o</t>
+  </si>
+  <si>
+    <t>Places the surface mount devices/components on the PCB (on the solder paste)</t>
+  </si>
+  <si>
+    <t>Automated optical inspection machine, checking if components are correctly mounted, e.g without shifting, rotating etc.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Zw53kxy7yL0</t>
+  </si>
+  <si>
+    <t>Technicall, there is only a single owen, it is only split up to three object because of simuation logic: each owen objects correspond to on heating step of a long owen, with an inline conveyor belt. To get the right solder joints, more heting zones/steps are needed, in this case three or four heting zones. The reflow owen first melts the solder paste, thus the paste covers the pins of the comopnents, and joints becomes solid during the cooling steps, fixing the components on  the board.</t>
+  </si>
+  <si>
+    <t>Very similar to AOI1, it cheks the overal quality of the surface mounting.</t>
+  </si>
+  <si>
+    <t>Placing the PCB in a plastic house by a human operator, by placing and screwing processes</t>
+  </si>
+  <si>
+    <t>Mounting the larger, not surface mounted connectors on the board/house manually by screwing.</t>
+  </si>
+  <si>
+    <t>Manual inserton/assembly of additional components, typically spirngs, conectors auxiliary modules.</t>
+  </si>
+  <si>
+    <t>The house of the product is closed by fixing the lid with high freuency welding, locally melting the plasitc surface (shaling it with high frequency, small apmlitude) and fixing the lid after the chilling.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +175,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -145,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -196,11 +249,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -213,9 +300,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -555,18 +674,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="137.5703125" customWidth="1"/>
+    <col min="9" max="9" width="47.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>15</v>
@@ -586,8 +707,14 @@
       <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,8 +736,14 @@
       <c r="G2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -632,8 +765,11 @@
       <c r="G3" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -655,8 +791,14 @@
       <c r="G4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -678,8 +820,11 @@
       <c r="G5" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -701,8 +846,14 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -718,8 +869,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="20"/>
+      <c r="I7" s="22"/>
+    </row>
+    <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -735,8 +888,10 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -758,8 +913,11 @@
       <c r="G9" s="8">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -781,8 +939,11 @@
       <c r="G10" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -796,8 +957,11 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -813,8 +977,9 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -836,8 +1001,11 @@
       <c r="G13" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -859,8 +1027,9 @@
       <c r="G14" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -882,8 +1051,9 @@
       <c r="G15" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -905,8 +1075,11 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -933,8 +1106,9 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
@@ -956,9 +1130,21 @@
       <c r="G18" s="4">
         <v>49</v>
       </c>
+      <c r="H18" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="I6" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/simulation_model/stations.xlsx
+++ b/simulation_model/stations.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dav\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Farshid\Desktop\thesis\early-fault-detection\simulation_model\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22155" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22160" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -304,14 +304,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -322,19 +316,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hivatkozás" xfId="1" builtinId="8"/>
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -677,17 +677,17 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="137.5703125" customWidth="1"/>
-    <col min="9" max="9" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="103.453125" customWidth="1"/>
+    <col min="9" max="9" width="47.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>15</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -743,7 +743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -769,7 +769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -798,7 +798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -824,7 +824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -846,14 +846,14 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -869,10 +869,10 @@
         <v>1</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="18"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -888,10 +888,10 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="19"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -917,7 +917,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -943,7 +943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
@@ -954,14 +954,16 @@
         <v>0.5</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="E11" s="3">
+        <v>0.5</v>
+      </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
@@ -973,13 +975,13 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="23"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1001,11 +1003,11 @@
       <c r="G13" s="1">
         <v>2</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
@@ -1027,9 +1029,9 @@
       <c r="G14" s="3">
         <v>0.5</v>
       </c>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -1051,9 +1053,9 @@
       <c r="G15" s="3">
         <v>0.5</v>
       </c>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="H15" s="23"/>
+    </row>
+    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1075,11 +1077,11 @@
       <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1108,7 +1110,7 @@
       </c>
       <c r="H17" s="13"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>21</v>
       </c>
